--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C535"/>
+  <dimension ref="A1:C538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9461,6 +9461,57 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C538"/>
+  <dimension ref="A1:C539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9512,6 +9512,23 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C539"/>
+  <dimension ref="A1:C540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9529,6 +9529,23 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C540"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9546,6 +9546,23 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9563,6 +9563,23 @@
         </is>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C542"/>
+  <dimension ref="A1:C545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9580,6 +9580,57 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C545"/>
+  <dimension ref="A1:C546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9631,6 +9631,23 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C546"/>
+  <dimension ref="A1:C547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9648,6 +9648,23 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C547"/>
+  <dimension ref="A1:C548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9665,6 +9665,23 @@
         </is>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
+++ b/Data/F022.BCLP.STO.PGR2.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C548"/>
+  <dimension ref="A1:C549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9682,6 +9682,23 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>30.0734722111049</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
